--- a/src/Excel/dataProject.xlsx
+++ b/src/Excel/dataProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="835" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="835"/>
   </bookViews>
   <sheets>
     <sheet name="Buku" sheetId="1" r:id="rId1"/>
@@ -102,60 +102,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -164,51 +135,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -217,7 +143,67 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +212,21 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -234,40 +234,21 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -281,43 +262,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,13 +382,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,121 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +453,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,56 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -563,29 +553,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,25 +576,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,103 +597,109 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,8 +1033,8 @@
   <sheetPr/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1090,7 +1071,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1118,7 +1099,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1147,7 +1128,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1157,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1191,7 +1172,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1202,7 +1183,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1224,7 +1205,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1256,7 +1237,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1293,7 +1274,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/Excel/dataProject.xlsx
+++ b/src/Excel/dataProject.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" tabRatio="835" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185" tabRatio="835" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Buku" sheetId="1" r:id="rId1"/>
@@ -24,12 +19,12 @@
     <definedName name="tabelcobalah">Penulis!$B$2:$C$84</definedName>
     <definedName name="tablenoob">Penulis!$B$2:$C$84</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="422">
   <si>
     <t>idBuku</t>
   </si>
@@ -73,15 +68,9 @@
     <t>kategori</t>
   </si>
   <si>
-    <t>K0001</t>
-  </si>
-  <si>
     <t>Fiksi</t>
   </si>
   <si>
-    <t>K0002</t>
-  </si>
-  <si>
     <t>Non-Fiksi</t>
   </si>
   <si>
@@ -1280,16 +1269,45 @@
   </si>
   <si>
     <t>PN009</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>C012</t>
+  </si>
+  <si>
+    <t>K001</t>
+  </si>
+  <si>
+    <t>Keren</t>
+  </si>
+  <si>
+    <t>DT001</t>
+  </si>
+  <si>
+    <t>DT003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1330,12 +1348,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1350,12 +1369,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1636,22 +1665,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="2"/>
-    <col min="2" max="2" width="24.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="2"/>
-    <col min="6" max="6" width="12.26953125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="24.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1677,2100 +1706,2700 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H2" s="6">
         <v>30000</v>
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H3" s="6">
         <v>35000</v>
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H4" s="6">
         <v>40000</v>
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H5" s="6">
         <v>79000</v>
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H6" s="6">
         <v>97000</v>
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H7" s="6">
         <v>132000</v>
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H8" s="6">
         <v>54000</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H9" s="6">
         <v>64000</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H10" s="6">
         <v>102000</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H11" s="6">
         <v>68000</v>
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H12" s="6">
         <v>67000</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H13" s="6">
         <v>119000</v>
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H14" s="6">
         <v>90000</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H15" s="6">
         <v>98000</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H16" s="6">
         <v>94000</v>
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H17" s="6">
         <v>79000</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H18" s="6">
         <v>54000</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H19" s="6">
         <v>67000</v>
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H20" s="6">
         <v>72000</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H21" s="6">
         <v>86000</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H22" s="6">
         <v>92000</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H23" s="6">
         <v>56000</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H24" s="6">
         <v>67000</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H25" s="6">
         <v>65000</v>
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H26" s="6">
         <v>129800</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H27" s="6">
         <v>23800</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H28" s="6">
         <v>33800</v>
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H29" s="6">
         <v>43800</v>
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H30" s="6">
         <v>93800</v>
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H31" s="6">
         <v>73800</v>
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H32" s="6">
         <v>174800</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H33" s="6">
         <v>68800</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H34" s="6">
         <v>116800</v>
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H35" s="6">
         <v>124800</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H36" s="6">
         <v>119800</v>
       </c>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H37" s="6">
         <v>73800</v>
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H38" s="6">
         <v>60000</v>
       </c>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H39" s="6">
         <v>50000</v>
       </c>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H40" s="6">
         <v>29000</v>
       </c>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H41" s="6">
         <v>15000</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H42" s="6">
         <v>35000</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H43" s="6">
         <v>20000</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H44" s="6">
         <v>30000</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H45" s="6">
         <v>28000</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H46" s="6">
         <v>40000</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H47" s="6">
         <v>26000</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H48" s="6">
         <v>25000</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H49" s="6">
         <v>25000</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H50" s="6">
         <v>25000</v>
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H51" s="6">
         <v>40000</v>
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H52" s="6">
         <v>29000</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H53" s="6">
         <v>18000</v>
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H54" s="6">
         <v>32000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H55" s="7">
         <v>18000</v>
       </c>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H56" s="7">
         <v>10000</v>
       </c>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H57" s="7">
         <v>18000</v>
       </c>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H58" s="7">
         <v>22000</v>
       </c>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H59" s="7">
         <v>28000</v>
       </c>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H60" s="7">
         <v>18000</v>
       </c>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H61" s="7">
         <v>8000</v>
       </c>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H62" s="7">
         <v>20000</v>
       </c>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H63" s="7">
         <v>20000</v>
       </c>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H64" s="7">
         <v>35000</v>
       </c>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H65" s="7">
         <v>45000</v>
       </c>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H66" s="7">
         <v>38000</v>
       </c>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H67" s="7">
         <v>35000</v>
       </c>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H68" s="7">
         <v>32000</v>
       </c>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H69" s="7">
         <v>38000</v>
       </c>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H70" s="7">
         <v>30000</v>
       </c>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H71" s="7">
         <v>100000</v>
       </c>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H72" s="7">
         <v>45000</v>
       </c>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H73" s="7">
         <v>28000</v>
       </c>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H74" s="7">
         <v>35000</v>
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H75" s="7">
         <v>38000</v>
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H76" s="7">
         <v>35000</v>
       </c>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H77" s="7">
         <v>100000</v>
       </c>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H78" s="7">
         <v>75000</v>
       </c>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H79" s="7">
         <v>85000</v>
       </c>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H80" s="7">
         <v>35000</v>
       </c>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H81" s="7">
         <v>35000</v>
       </c>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H82" s="7">
         <v>30000</v>
       </c>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H83" s="7">
         <v>44000</v>
       </c>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H84" s="7">
         <v>35000</v>
       </c>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H85" s="7">
         <v>35000</v>
       </c>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H86" s="7">
         <v>34000</v>
       </c>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H87" s="7">
         <v>34000</v>
       </c>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H88" s="7">
         <v>30000</v>
       </c>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F89" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H89" s="7">
         <v>30000</v>
       </c>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H90" s="7">
         <v>30000</v>
       </c>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F91" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H91" s="7">
         <v>35000</v>
       </c>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H92" s="7">
         <v>38000</v>
       </c>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H93" s="7">
         <v>30000</v>
       </c>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H94" s="7">
         <v>38000</v>
       </c>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F95" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H95" s="7">
         <v>34000</v>
       </c>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H96" s="7">
         <v>38000</v>
       </c>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H97" s="7">
         <v>30000</v>
       </c>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H98" s="7">
         <v>40000</v>
       </c>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F99" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H99" s="7">
         <v>55000</v>
       </c>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H100" s="7">
         <v>38000</v>
       </c>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F101" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H101" s="7">
         <v>30000</v>
@@ -3787,17 +4416,17 @@
   <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="2"/>
-    <col min="2" max="2" width="28.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -3805,668 +4434,668 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -4479,17 +5108,17 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -4497,76 +5126,76 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -4579,15 +5208,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4595,20 +5224,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4621,19 +5250,19 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -4642,48 +5271,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4693,62 +5322,130 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="8">
+        <v>43217</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43218</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="8">
+        <v>43219</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50972222222222197" footer="0.50972222222222197"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/dataProject.xlsx
+++ b/src/Excel/dataProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185" tabRatio="835" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185" tabRatio="835" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Buku" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="SubKategori" sheetId="5" r:id="rId5"/>
     <sheet name="Transaksi" sheetId="6" r:id="rId6"/>
     <sheet name="DetailTransaksi" sheetId="7" r:id="rId7"/>
+    <sheet name="Rekening" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="tabelcobalah">Penulis!$B$2:$C$84</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="433">
   <si>
     <t>idBuku</t>
   </si>
@@ -1290,6 +1291,39 @@
   </si>
   <si>
     <t>DT003</t>
+  </si>
+  <si>
+    <t>No Rekening</t>
+  </si>
+  <si>
+    <t>Nama Pemilik</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>05-0311-224</t>
+  </si>
+  <si>
+    <t>05-0645-714</t>
+  </si>
+  <si>
+    <t>04-7653-991</t>
+  </si>
+  <si>
+    <t>01-4563-202</t>
+  </si>
+  <si>
+    <t>Afif</t>
+  </si>
+  <si>
+    <t>Ilham</t>
+  </si>
+  <si>
+    <t>Naufal</t>
+  </si>
+  <si>
+    <t>Rizki</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1388,7 @@
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1381,6 +1415,9 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1671,13 +1708,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="24.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="2" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4421,9 +4458,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="28.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5113,9 +5150,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5213,7 +5250,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5255,9 +5292,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5330,8 +5367,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5388,13 +5425,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5451,4 +5488,79 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50972222222222197" footer="0.50972222222222197"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" s="10">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="10">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="10">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="10">
+        <v>10000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/Excel/dataProject.xlsx
+++ b/src/Excel/dataProject.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370" tabRatio="835"/>
+    <workbookView tabRatio="835" windowHeight="8370" windowWidth="19890" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Buku" sheetId="1" r:id="rId1"/>
-    <sheet name="Penulis" sheetId="2" r:id="rId2"/>
-    <sheet name="Penerbit" sheetId="3" r:id="rId3"/>
-    <sheet name="Kategori" sheetId="4" r:id="rId4"/>
-    <sheet name="SubKategori" sheetId="5" r:id="rId5"/>
-    <sheet name="Transaksi" sheetId="6" r:id="rId6"/>
-    <sheet name="DetailTransaksi" sheetId="7" r:id="rId7"/>
-    <sheet name="Rekening" sheetId="8" r:id="rId8"/>
+    <sheet name="Buku" r:id="rId1" sheetId="1"/>
+    <sheet name="Penulis" r:id="rId2" sheetId="2"/>
+    <sheet name="Penerbit" r:id="rId3" sheetId="3"/>
+    <sheet name="Kategori" r:id="rId4" sheetId="4"/>
+    <sheet name="SubKategori" r:id="rId5" sheetId="5"/>
+    <sheet name="Transaksi" r:id="rId6" sheetId="6"/>
+    <sheet name="DetailTransaksi" r:id="rId7" sheetId="7"/>
+    <sheet name="Rekening" r:id="rId8" sheetId="8"/>
   </sheets>
   <definedNames>
     <definedName name="tabelcobalah">Penulis!$B$2:$C$84</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="434">
   <si>
     <t>idBuku</t>
   </si>
@@ -1332,15 +1332,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1352,349 +1349,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1717,339 +1384,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="41" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle builtinId="6" name="Comma [0]" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2065,10 +1447,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2232,21 +1614,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2263,7 +1645,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2312,30 +1694,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I101"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="3"/>
-    <col min="2" max="2" width="24.1428571428571" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.5714285714286" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.57142857142857" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="3"/>
-    <col min="6" max="6" width="12.2857142857143" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="3"/>
+    <col min="1" max="1" style="3" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" style="3" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="12.28515625" collapsed="true"/>
+    <col min="7" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2389,8 +1771,8 @@
       <c r="H2" s="10">
         <v>30000</v>
       </c>
-      <c r="I2" s="3">
-        <v>100</v>
+      <c r="I2" s="3" t="n">
+        <v>96.0</v>
       </c>
       <c r="L2" s="6"/>
     </row>
@@ -2419,8 +1801,8 @@
       <c r="H3" s="10">
         <v>35000</v>
       </c>
-      <c r="I3" s="3">
-        <v>100</v>
+      <c r="I3" s="3" t="n">
+        <v>-3.0</v>
       </c>
       <c r="L3" s="6"/>
     </row>
@@ -5365,25 +4747,23 @@
       <c r="L101" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.50902777777777797" header="0.50902777777777797" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="3" collapsed="1"/>
-    <col min="2" max="2" width="28.4285714285714" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.14285714285714" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="28.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6059,25 +5439,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.50902777777777797" header="0.50902777777777797" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1428571428571" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.4285714285714" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.14285714285714" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="21.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6161,23 +5539,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.50902777777777797" header="0.50902777777777797" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6205,25 +5581,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.50902777777777797" header="0.50902777777777797" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="120" zoomScaleNormal="120">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85714285714286" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6282,24 +5656,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.50902777777777797" header="0.50902777777777797" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6347,24 +5719,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.50902777777777797" header="0.50902777777777797" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6419,25 +5789,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.50902777777777797" header="0.50902777777777797" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="14.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="12.5714285714286" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6496,7 +5864,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
--- a/src/Excel/dataProject.xlsx
+++ b/src/Excel/dataProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView tabRatio="835" windowHeight="8370" windowWidth="19890" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="7" tabRatio="835" windowHeight="8370" windowWidth="19890" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Buku" r:id="rId1" sheetId="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="435">
   <si>
     <t>idBuku</t>
   </si>
@@ -1327,6 +1327,9 @@
   </si>
   <si>
     <t>Rizki</t>
+  </si>
+  <si>
+    <t>T013</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -1772,7 +1775,7 @@
         <v>30000</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>96.0</v>
+        <v>92.0</v>
       </c>
       <c r="L2" s="6"/>
     </row>
@@ -1801,8 +1804,8 @@
       <c r="H3" s="10">
         <v>35000</v>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>-3.0</v>
+      <c r="I3" s="3">
+        <v>-3</v>
       </c>
       <c r="L3" s="6"/>
     </row>
@@ -5662,7 +5665,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -5716,6 +5719,17 @@
       </c>
       <c r="C4">
         <v>90</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B5" t="n">
+        <v>43222.722382719905</v>
+      </c>
+      <c r="C5" t="n">
+        <v>120000.0</v>
       </c>
     </row>
   </sheetData>
@@ -5797,8 +5811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/src/Excel/dataProject.xlsx
+++ b/src/Excel/dataProject.xlsx
@@ -1775,7 +1775,7 @@
         <v>30000</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>92.0</v>
+        <v>87.0</v>
       </c>
       <c r="L2" s="6"/>
     </row>
@@ -1954,8 +1954,8 @@
       <c r="H8" s="10">
         <v>54000</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
+      <c r="I8" s="3" t="n">
+        <v>94.0</v>
       </c>
       <c r="L8" s="6"/>
     </row>

--- a/src/Excel/dataProject.xlsx
+++ b/src/Excel/dataProject.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\NetBeansProjects\KasirToko\src\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="7" tabRatio="835" windowHeight="8370" windowWidth="19890" xWindow="0" yWindow="0"/>
+    <workbookView tabRatio="835" windowHeight="8960" windowWidth="20390" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Buku" r:id="rId1" sheetId="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="451">
   <si>
     <t>idBuku</t>
   </si>
@@ -1272,13 +1277,13 @@
     <t>total</t>
   </si>
   <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>B004</t>
-  </si>
-  <si>
-    <t>C012</t>
+    <t>T014</t>
+  </si>
+  <si>
+    <t>T015</t>
+  </si>
+  <si>
+    <t>T016</t>
   </si>
   <si>
     <t>idDetail</t>
@@ -1290,10 +1295,13 @@
     <t>qty</t>
   </si>
   <si>
-    <t>DT001</t>
-  </si>
-  <si>
-    <t>DT003</t>
+    <t>DT015</t>
+  </si>
+  <si>
+    <t>DT016</t>
+  </si>
+  <si>
+    <t>DT017</t>
   </si>
   <si>
     <t>No Rekening</t>
@@ -1323,22 +1331,68 @@
     <t>Naufal</t>
   </si>
   <si>
-    <t>01-4563-202</t>
+    <t>04-5741-753</t>
   </si>
   <si>
     <t>Rizki</t>
   </si>
   <si>
-    <t>T013</t>
+    <t>T017</t>
+  </si>
+  <si>
+    <t>DT018</t>
+  </si>
+  <si>
+    <t>T018</t>
+  </si>
+  <si>
+    <t>DT019</t>
+  </si>
+  <si>
+    <t>T019</t>
+  </si>
+  <si>
+    <t>DT020</t>
+  </si>
+  <si>
+    <t>T020</t>
+  </si>
+  <si>
+    <t>DT021</t>
+  </si>
+  <si>
+    <t>T021</t>
+  </si>
+  <si>
+    <t>DT022</t>
+  </si>
+  <si>
+    <t>T022</t>
+  </si>
+  <si>
+    <t>DT023</t>
+  </si>
+  <si>
+    <t>T023</t>
+  </si>
+  <si>
+    <t>DT024</t>
+  </si>
+  <si>
+    <t>T024</t>
+  </si>
+  <si>
+    <t>DT025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1392,26 +1446,35 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="167"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="41" xfId="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1421,8 +1484,8 @@
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="41" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="41" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1440,6 +1503,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1705,3049 +1771,3049 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" style="3" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="10.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" style="3" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="12.28515625" collapsed="true"/>
-    <col min="7" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" style="8" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="24.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="8" width="10.54296875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="9.54296875" collapsed="true"/>
+    <col min="5" max="5" style="8" width="9.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="8" width="12.26953125" collapsed="true"/>
+    <col min="7" max="16384" style="8" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="F2" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="13">
         <v>30000</v>
       </c>
-      <c r="I2" s="3" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="L2" s="6"/>
+      <c r="I2" s="8" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="F3" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="13">
         <v>35000</v>
       </c>
-      <c r="I3" s="3">
-        <v>-3</v>
-      </c>
-      <c r="L3" s="6"/>
+      <c r="I3" s="8">
+        <v>99</v>
+      </c>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="F4" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="13">
         <v>40000</v>
       </c>
-      <c r="I4" s="3">
-        <v>100</v>
-      </c>
-      <c r="L4" s="6"/>
+      <c r="I4" s="8">
+        <v>92</v>
+      </c>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="F5" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="13">
         <v>79000</v>
       </c>
-      <c r="I5" s="3">
-        <v>100</v>
-      </c>
-      <c r="L5" s="6"/>
+      <c r="I5" s="8">
+        <v>100</v>
+      </c>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="F6" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="13">
         <v>97000</v>
       </c>
-      <c r="I6" s="3">
-        <v>100</v>
-      </c>
-      <c r="L6" s="6"/>
+      <c r="I6" s="8">
+        <v>100</v>
+      </c>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="F7" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="13">
         <v>132000</v>
       </c>
-      <c r="I7" s="3">
-        <v>100</v>
-      </c>
-      <c r="L7" s="6"/>
+      <c r="I7" s="8">
+        <v>100</v>
+      </c>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="F8" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="13">
         <v>54000</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="6"/>
+      <c r="I8" s="8" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="F9" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="13">
         <v>64000</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
-      <c r="L9" s="6"/>
+      <c r="I9" s="8">
+        <v>95</v>
+      </c>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="F10" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="13">
         <v>102000</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="6"/>
+      <c r="I10" s="8">
+        <v>87</v>
+      </c>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="F11" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="13">
         <v>68000</v>
       </c>
-      <c r="I11" s="3">
-        <v>100</v>
-      </c>
-      <c r="L11" s="6"/>
+      <c r="I11" s="8">
+        <v>100</v>
+      </c>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="F12" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="13">
         <v>67000</v>
       </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
-      <c r="L12" s="6"/>
+      <c r="I12" s="8">
+        <v>100</v>
+      </c>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="F13" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="13">
         <v>119000</v>
       </c>
-      <c r="I13" s="3">
-        <v>100</v>
-      </c>
-      <c r="L13" s="6"/>
+      <c r="I13" s="8">
+        <v>100</v>
+      </c>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="F14" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="13">
         <v>90000</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="6"/>
+      <c r="I14" s="8">
+        <v>100</v>
+      </c>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="F15" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="13">
         <v>98000</v>
       </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="L15" s="6"/>
+      <c r="I15" s="8">
+        <v>100</v>
+      </c>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="F16" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="13">
         <v>94000</v>
       </c>
-      <c r="I16" s="3">
-        <v>100</v>
-      </c>
-      <c r="L16" s="6"/>
+      <c r="I16" s="8">
+        <v>100</v>
+      </c>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="F17" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="13">
         <v>79000</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="6"/>
+      <c r="I17" s="8">
+        <v>100</v>
+      </c>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="F18" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="13">
         <v>54000</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="6"/>
+      <c r="I18" s="8">
+        <v>100</v>
+      </c>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="F19" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="13">
         <v>67000</v>
       </c>
-      <c r="I19" s="3">
-        <v>100</v>
-      </c>
-      <c r="L19" s="6"/>
+      <c r="I19" s="8">
+        <v>100</v>
+      </c>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="F20" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="13">
         <v>72000</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="L20" s="6"/>
+      <c r="I20" s="8">
+        <v>100</v>
+      </c>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="F21" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="13">
         <v>86000</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="6"/>
+      <c r="I21" s="8">
+        <v>100</v>
+      </c>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="10">
+      <c r="F22" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="13">
         <v>92000</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="6"/>
+      <c r="I22" s="8">
+        <v>100</v>
+      </c>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="F23" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="13">
         <v>56000</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="L23" s="6"/>
+      <c r="I23" s="8">
+        <v>100</v>
+      </c>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="F24" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="13">
         <v>67000</v>
       </c>
-      <c r="I24" s="3">
-        <v>100</v>
-      </c>
-      <c r="L24" s="6"/>
+      <c r="I24" s="8">
+        <v>100</v>
+      </c>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="10">
+      <c r="F25" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="13">
         <v>65000</v>
       </c>
-      <c r="I25" s="3">
-        <v>100</v>
-      </c>
-      <c r="L25" s="7"/>
+      <c r="I25" s="8">
+        <v>100</v>
+      </c>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="10">
+      <c r="F26" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="13">
         <v>129800</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="L26" s="6"/>
+      <c r="I26" s="8">
+        <v>100</v>
+      </c>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="10">
+      <c r="F27" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="13">
         <v>23800</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="L27" s="6"/>
+      <c r="I27" s="8">
+        <v>100</v>
+      </c>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="10">
+      <c r="F28" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="13">
         <v>33800</v>
       </c>
-      <c r="I28" s="3">
-        <v>100</v>
-      </c>
-      <c r="L28" s="6"/>
+      <c r="I28" s="8">
+        <v>100</v>
+      </c>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="10">
+      <c r="F29" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="13">
         <v>43800</v>
       </c>
-      <c r="I29" s="3">
-        <v>100</v>
-      </c>
-      <c r="L29" s="6"/>
+      <c r="I29" s="8">
+        <v>100</v>
+      </c>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="10">
+      <c r="F30" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="13">
         <v>93800</v>
       </c>
-      <c r="I30" s="3">
-        <v>100</v>
-      </c>
-      <c r="L30" s="6"/>
+      <c r="I30" s="8">
+        <v>100</v>
+      </c>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="10">
+      <c r="F31" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="13">
         <v>73800</v>
       </c>
-      <c r="I31" s="3">
-        <v>100</v>
-      </c>
-      <c r="L31" s="6"/>
+      <c r="I31" s="8">
+        <v>100</v>
+      </c>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="10">
+      <c r="F32" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="13">
         <v>174800</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="6"/>
+      <c r="I32" s="8">
+        <v>100</v>
+      </c>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="10">
+      <c r="F33" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="13">
         <v>68800</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="L33" s="6"/>
+      <c r="I33" s="8">
+        <v>100</v>
+      </c>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="10">
+      <c r="F34" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="13">
         <v>116800</v>
       </c>
-      <c r="I34" s="3">
-        <v>100</v>
-      </c>
-      <c r="L34" s="6"/>
+      <c r="I34" s="8">
+        <v>100</v>
+      </c>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="10">
+      <c r="F35" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="13">
         <v>124800</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="L35" s="6"/>
+      <c r="I35" s="8">
+        <v>100</v>
+      </c>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="10">
+      <c r="F36" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="13">
         <v>119800</v>
       </c>
-      <c r="I36" s="3">
-        <v>100</v>
-      </c>
-      <c r="L36" s="6"/>
+      <c r="I36" s="8">
+        <v>100</v>
+      </c>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="10">
+      <c r="F37" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="13">
         <v>73800</v>
       </c>
-      <c r="I37" s="3">
-        <v>100</v>
-      </c>
-      <c r="L37" s="6"/>
+      <c r="I37" s="8">
+        <v>100</v>
+      </c>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="10">
+      <c r="F38" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="13">
         <v>60000</v>
       </c>
-      <c r="I38" s="3">
-        <v>100</v>
-      </c>
-      <c r="L38" s="6"/>
+      <c r="I38" s="8">
+        <v>100</v>
+      </c>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="10">
+      <c r="F39" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="13">
         <v>50000</v>
       </c>
-      <c r="I39" s="3">
-        <v>100</v>
-      </c>
-      <c r="L39" s="6"/>
+      <c r="I39" s="8">
+        <v>100</v>
+      </c>
+      <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="10">
+      <c r="F40" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="13">
         <v>29000</v>
       </c>
-      <c r="I40" s="3">
-        <v>100</v>
-      </c>
-      <c r="L40" s="6"/>
+      <c r="I40" s="8">
+        <v>100</v>
+      </c>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C41" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="10">
+      <c r="F41" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="13">
         <v>15000</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="6"/>
+      <c r="I41" s="8">
+        <v>100</v>
+      </c>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="10">
+      <c r="F42" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="13">
         <v>35000</v>
       </c>
-      <c r="I42" s="3">
-        <v>100</v>
-      </c>
-      <c r="L42" s="6"/>
+      <c r="I42" s="8">
+        <v>100</v>
+      </c>
+      <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C43" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="10">
+      <c r="F43" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="13">
         <v>20000</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="6"/>
+      <c r="I43" s="8">
+        <v>100</v>
+      </c>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="10">
+      <c r="F44" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="13">
         <v>30000</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
-      <c r="L44" s="6"/>
+      <c r="I44" s="8">
+        <v>100</v>
+      </c>
+      <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="10">
+      <c r="F45" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="13">
         <v>28000</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="L45" s="6"/>
+      <c r="I45" s="8">
+        <v>100</v>
+      </c>
+      <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="10">
+      <c r="F46" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="13">
         <v>40000</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="6"/>
+      <c r="I46" s="8">
+        <v>100</v>
+      </c>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="10">
+      <c r="F47" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="13">
         <v>26000</v>
       </c>
-      <c r="I47" s="3">
-        <v>100</v>
-      </c>
-      <c r="L47" s="6"/>
+      <c r="I47" s="8">
+        <v>100</v>
+      </c>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F48" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="10">
+      <c r="F48" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="13">
         <v>25000</v>
       </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
-      <c r="L48" s="6"/>
+      <c r="I48" s="8">
+        <v>100</v>
+      </c>
+      <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C49" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F49" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="10">
+      <c r="F49" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="13">
         <v>25000</v>
       </c>
-      <c r="I49" s="3">
-        <v>100</v>
-      </c>
-      <c r="L49" s="6"/>
+      <c r="I49" s="8">
+        <v>100</v>
+      </c>
+      <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="C50" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="10">
+      <c r="F50" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="13">
         <v>25000</v>
       </c>
-      <c r="I50" s="3">
-        <v>100</v>
-      </c>
-      <c r="L50" s="6"/>
+      <c r="I50" s="8">
+        <v>100</v>
+      </c>
+      <c r="L50" s="9"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F51" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="10">
+      <c r="F51" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="13">
         <v>40000</v>
       </c>
-      <c r="I51" s="3">
-        <v>100</v>
-      </c>
-      <c r="L51" s="6"/>
+      <c r="I51" s="8">
+        <v>100</v>
+      </c>
+      <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F52" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="10">
+      <c r="F52" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="13">
         <v>29000</v>
       </c>
-      <c r="I52" s="3">
-        <v>100</v>
-      </c>
-      <c r="L52" s="6"/>
+      <c r="I52" s="8">
+        <v>100</v>
+      </c>
+      <c r="L52" s="9"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="C53" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F53" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="10">
+      <c r="F53" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="13">
         <v>18000</v>
       </c>
-      <c r="I53" s="3">
-        <v>100</v>
-      </c>
-      <c r="L53" s="6"/>
+      <c r="I53" s="8">
+        <v>100</v>
+      </c>
+      <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="C54" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="10">
+      <c r="F54" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="13">
         <v>32000</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
-      <c r="L54" s="6"/>
+      <c r="I54" s="8">
+        <v>100</v>
+      </c>
+      <c r="L54" s="9"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="C55" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="11">
+      <c r="F55" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="14">
         <v>18000</v>
       </c>
-      <c r="I55" s="3">
-        <v>100</v>
-      </c>
-      <c r="L55" s="8"/>
+      <c r="I55" s="8">
+        <v>100</v>
+      </c>
+      <c r="L55" s="11"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="C56" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F56" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="11">
+      <c r="F56" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="14">
         <v>10000</v>
       </c>
-      <c r="I56" s="3">
-        <v>100</v>
-      </c>
-      <c r="L56" s="8"/>
+      <c r="I56" s="8">
+        <v>100</v>
+      </c>
+      <c r="L56" s="11"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="C57" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F57" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="11">
+      <c r="F57" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="14">
         <v>18000</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="8"/>
+      <c r="I57" s="8">
+        <v>100</v>
+      </c>
+      <c r="L57" s="11"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="C58" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F58" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="11">
+      <c r="F58" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="14">
         <v>22000</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="8"/>
+      <c r="I58" s="8">
+        <v>100</v>
+      </c>
+      <c r="L58" s="11"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="C59" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F59" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="11">
+      <c r="F59" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="14">
         <v>28000</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
-      <c r="L59" s="8"/>
+      <c r="I59" s="8">
+        <v>100</v>
+      </c>
+      <c r="L59" s="11"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="C60" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F60" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="11">
+      <c r="F60" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="14">
         <v>18000</v>
       </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
-      <c r="L60" s="8"/>
+      <c r="I60" s="8">
+        <v>100</v>
+      </c>
+      <c r="L60" s="11"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="C61" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F61" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="11">
+      <c r="F61" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="14">
         <v>8000</v>
       </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
-      <c r="L61" s="8"/>
+      <c r="I61" s="8">
+        <v>100</v>
+      </c>
+      <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F62" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="11">
+      <c r="F62" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="14">
         <v>20000</v>
       </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
-      <c r="L62" s="8"/>
+      <c r="I62" s="8">
+        <v>100</v>
+      </c>
+      <c r="L62" s="11"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F63" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="11">
+      <c r="F63" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="14">
         <v>20000</v>
       </c>
-      <c r="I63" s="3">
-        <v>100</v>
-      </c>
-      <c r="L63" s="8"/>
+      <c r="I63" s="8">
+        <v>100</v>
+      </c>
+      <c r="L63" s="11"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="C64" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F64" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="11">
+      <c r="F64" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="14">
         <v>35000</v>
       </c>
-      <c r="I64" s="3">
-        <v>100</v>
-      </c>
-      <c r="L64" s="8"/>
+      <c r="I64" s="8">
+        <v>100</v>
+      </c>
+      <c r="L64" s="11"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="C65" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F65" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="11">
+      <c r="F65" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="14">
         <v>45000</v>
       </c>
-      <c r="I65" s="3">
-        <v>100</v>
-      </c>
-      <c r="L65" s="8"/>
+      <c r="I65" s="8">
+        <v>100</v>
+      </c>
+      <c r="L65" s="11"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="C66" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="11">
+      <c r="F66" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="14">
         <v>38000</v>
       </c>
-      <c r="I66" s="3">
-        <v>100</v>
-      </c>
-      <c r="L66" s="8"/>
+      <c r="I66" s="8">
+        <v>100</v>
+      </c>
+      <c r="L66" s="11"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="C67" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F67" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="11">
+      <c r="F67" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="14">
         <v>35000</v>
       </c>
-      <c r="I67" s="3">
-        <v>100</v>
-      </c>
-      <c r="L67" s="8"/>
+      <c r="I67" s="8">
+        <v>100</v>
+      </c>
+      <c r="L67" s="11"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="C68" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="11">
+      <c r="F68" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="14">
         <v>32000</v>
       </c>
-      <c r="I68" s="3">
-        <v>100</v>
-      </c>
-      <c r="L68" s="8"/>
+      <c r="I68" s="8">
+        <v>100</v>
+      </c>
+      <c r="L68" s="11"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="C69" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F69" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="11">
+      <c r="F69" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="14">
         <v>38000</v>
       </c>
-      <c r="I69" s="3">
-        <v>100</v>
-      </c>
-      <c r="L69" s="8"/>
+      <c r="I69" s="8">
+        <v>100</v>
+      </c>
+      <c r="L69" s="11"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="C70" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F70" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="11">
+      <c r="F70" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="14">
         <v>30000</v>
       </c>
-      <c r="I70" s="3">
-        <v>100</v>
-      </c>
-      <c r="L70" s="8"/>
+      <c r="I70" s="8">
+        <v>100</v>
+      </c>
+      <c r="L70" s="11"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="3" t="s">
+      <c r="C71" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F71" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="11">
+      <c r="F71" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="14">
         <v>100000</v>
       </c>
-      <c r="I71" s="3">
-        <v>100</v>
-      </c>
-      <c r="L71" s="8"/>
+      <c r="I71" s="8">
+        <v>100</v>
+      </c>
+      <c r="L71" s="11"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="C72" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F72" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="11">
+      <c r="F72" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="14">
         <v>45000</v>
       </c>
-      <c r="I72" s="3">
-        <v>100</v>
-      </c>
-      <c r="L72" s="8"/>
+      <c r="I72" s="8">
+        <v>100</v>
+      </c>
+      <c r="L72" s="11"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="C73" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F73" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="11">
+      <c r="F73" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="14">
         <v>28000</v>
       </c>
-      <c r="I73" s="3">
-        <v>100</v>
-      </c>
-      <c r="L73" s="8"/>
+      <c r="I73" s="8">
+        <v>100</v>
+      </c>
+      <c r="L73" s="11"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="C74" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F74" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="11">
+      <c r="F74" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="14">
         <v>35000</v>
       </c>
-      <c r="I74" s="3">
-        <v>100</v>
-      </c>
-      <c r="L74" s="8"/>
+      <c r="I74" s="8">
+        <v>100</v>
+      </c>
+      <c r="L74" s="11"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="C75" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F75" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="11">
+      <c r="F75" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="14">
         <v>38000</v>
       </c>
-      <c r="I75" s="3">
-        <v>100</v>
-      </c>
-      <c r="L75" s="8"/>
+      <c r="I75" s="8">
+        <v>100</v>
+      </c>
+      <c r="L75" s="11"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="C76" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F76" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="11">
+      <c r="F76" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="14">
         <v>35000</v>
       </c>
-      <c r="I76" s="3">
-        <v>100</v>
-      </c>
-      <c r="L76" s="8"/>
+      <c r="I76" s="8">
+        <v>100</v>
+      </c>
+      <c r="L76" s="11"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="C77" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F77" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="11">
+      <c r="F77" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="14">
         <v>100000</v>
       </c>
-      <c r="I77" s="3">
-        <v>100</v>
-      </c>
-      <c r="L77" s="8"/>
+      <c r="I77" s="8">
+        <v>100</v>
+      </c>
+      <c r="L77" s="11"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="C78" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F78" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="11">
+      <c r="F78" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="14">
         <v>75000</v>
       </c>
-      <c r="I78" s="3">
-        <v>100</v>
-      </c>
-      <c r="L78" s="8"/>
+      <c r="I78" s="8">
+        <v>100</v>
+      </c>
+      <c r="L78" s="11"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C79" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F79" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="11">
+      <c r="F79" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="14">
         <v>85000</v>
       </c>
-      <c r="I79" s="3">
-        <v>100</v>
-      </c>
-      <c r="L79" s="8"/>
+      <c r="I79" s="8">
+        <v>100</v>
+      </c>
+      <c r="L79" s="11"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="C80" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F80" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="11">
+      <c r="F80" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="14">
         <v>35000</v>
       </c>
-      <c r="I80" s="3">
-        <v>100</v>
-      </c>
-      <c r="L80" s="8"/>
+      <c r="I80" s="8">
+        <v>100</v>
+      </c>
+      <c r="L80" s="11"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="C81" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F81" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="11">
+      <c r="F81" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="14">
         <v>35000</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="L81" s="8"/>
+      <c r="I81" s="8">
+        <v>100</v>
+      </c>
+      <c r="L81" s="11"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="C82" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F82" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="11">
+      <c r="F82" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="14">
         <v>30000</v>
       </c>
-      <c r="I82" s="3">
-        <v>100</v>
-      </c>
-      <c r="L82" s="8"/>
+      <c r="I82" s="8">
+        <v>100</v>
+      </c>
+      <c r="L82" s="11"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="C83" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F83" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="11">
+      <c r="F83" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="14">
         <v>44000</v>
       </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="L83" s="8"/>
+      <c r="I83" s="8">
+        <v>100</v>
+      </c>
+      <c r="L83" s="11"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="C84" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F84" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="11">
+      <c r="F84" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="14">
         <v>35000</v>
       </c>
-      <c r="I84" s="3">
-        <v>100</v>
-      </c>
-      <c r="L84" s="8"/>
+      <c r="I84" s="8">
+        <v>100</v>
+      </c>
+      <c r="L84" s="11"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="C85" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F85" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="11">
+      <c r="F85" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="14">
         <v>35000</v>
       </c>
-      <c r="I85" s="3">
-        <v>100</v>
-      </c>
-      <c r="L85" s="8"/>
+      <c r="I85" s="8">
+        <v>100</v>
+      </c>
+      <c r="L85" s="11"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="C86" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F86" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="11">
+      <c r="F86" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="14">
         <v>34000</v>
       </c>
-      <c r="I86" s="3">
-        <v>100</v>
-      </c>
-      <c r="L86" s="8"/>
+      <c r="I86" s="8">
+        <v>100</v>
+      </c>
+      <c r="L86" s="11"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="C87" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F87" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="11">
+      <c r="F87" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="14">
         <v>34000</v>
       </c>
-      <c r="I87" s="3">
-        <v>100</v>
-      </c>
-      <c r="L87" s="8"/>
+      <c r="I87" s="8">
+        <v>100</v>
+      </c>
+      <c r="L87" s="11"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="C88" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F88" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="11">
+      <c r="F88" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="14">
         <v>30000</v>
       </c>
-      <c r="I88" s="3">
-        <v>100</v>
-      </c>
-      <c r="L88" s="8"/>
+      <c r="I88" s="8">
+        <v>100</v>
+      </c>
+      <c r="L88" s="11"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="C89" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F89" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="11">
+      <c r="F89" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="14">
         <v>30000</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="L89" s="8"/>
+      <c r="I89" s="8">
+        <v>100</v>
+      </c>
+      <c r="L89" s="11"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="C90" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F90" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="11">
+      <c r="F90" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="14">
         <v>30000</v>
       </c>
-      <c r="I90" s="3">
-        <v>100</v>
-      </c>
-      <c r="L90" s="8"/>
+      <c r="I90" s="8">
+        <v>100</v>
+      </c>
+      <c r="L90" s="11"/>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="C91" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F91" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="11">
+      <c r="F91" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="14">
         <v>35000</v>
       </c>
-      <c r="I91" s="3">
-        <v>100</v>
-      </c>
-      <c r="L91" s="8"/>
+      <c r="I91" s="8">
+        <v>100</v>
+      </c>
+      <c r="L91" s="11"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="C92" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F92" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="11">
+      <c r="F92" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="14">
         <v>38000</v>
       </c>
-      <c r="I92" s="3">
-        <v>100</v>
-      </c>
-      <c r="L92" s="8"/>
+      <c r="I92" s="8">
+        <v>100</v>
+      </c>
+      <c r="L92" s="11"/>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="C93" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F93" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="11">
+      <c r="F93" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="14">
         <v>30000</v>
       </c>
-      <c r="I93" s="3">
-        <v>100</v>
-      </c>
-      <c r="L93" s="8"/>
+      <c r="I93" s="8">
+        <v>100</v>
+      </c>
+      <c r="L93" s="11"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="C94" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F94" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="11">
+      <c r="F94" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="14">
         <v>38000</v>
       </c>
-      <c r="I94" s="3">
-        <v>100</v>
-      </c>
-      <c r="L94" s="8"/>
+      <c r="I94" s="8">
+        <v>100</v>
+      </c>
+      <c r="L94" s="11"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="C95" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F95" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" s="11">
+      <c r="F95" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="14">
         <v>34000</v>
       </c>
-      <c r="I95" s="3">
-        <v>100</v>
-      </c>
-      <c r="L95" s="8"/>
+      <c r="I95" s="8">
+        <v>100</v>
+      </c>
+      <c r="L95" s="11"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="C96" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F96" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="11">
+      <c r="F96" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="14">
         <v>38000</v>
       </c>
-      <c r="I96" s="3">
-        <v>100</v>
-      </c>
-      <c r="L96" s="8"/>
+      <c r="I96" s="8">
+        <v>100</v>
+      </c>
+      <c r="L96" s="11"/>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="C97" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F97" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="11">
+      <c r="F97" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="14">
         <v>30000</v>
       </c>
-      <c r="I97" s="3">
-        <v>100</v>
-      </c>
-      <c r="L97" s="8"/>
+      <c r="I97" s="8">
+        <v>100</v>
+      </c>
+      <c r="L97" s="11"/>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="C98" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F98" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="11">
+      <c r="F98" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="14">
         <v>40000</v>
       </c>
-      <c r="I98" s="3">
-        <v>100</v>
-      </c>
-      <c r="L98" s="8"/>
+      <c r="I98" s="8">
+        <v>100</v>
+      </c>
+      <c r="L98" s="11"/>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="C99" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F99" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" s="11">
+      <c r="F99" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="14">
         <v>55000</v>
       </c>
-      <c r="I99" s="3">
-        <v>100</v>
-      </c>
-      <c r="L99" s="8"/>
+      <c r="I99" s="8">
+        <v>100</v>
+      </c>
+      <c r="L99" s="11"/>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="C100" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F100" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="11">
+      <c r="F100" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="14">
         <v>38000</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="8"/>
+      <c r="I100" s="8" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="L100" s="11"/>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C101" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F101" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="11">
+      <c r="F101" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="14">
         <v>30000</v>
       </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
-      <c r="L101" s="8"/>
+      <c r="I101" s="8" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="L101" s="11"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.50902777777777797" header="0.50902777777777797" left="0.75" right="0.75" top="1"/>
@@ -4762,682 +4828,682 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" style="3" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="28.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" style="8" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="28.453125" collapsed="true"/>
+    <col min="3" max="16384" style="8" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="11" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="11" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="11" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="11" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="11" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="11" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="11" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="11" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="11" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="11" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="11" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="11" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="11" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="11" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="11" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="11" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="11" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="11" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="11" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="11" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="11" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="11" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="11" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="11" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="11" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="11" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="11" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="11" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="11" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="11" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="11" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="11" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="11" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="11" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="11" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="11" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="11" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="11" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="11" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="11" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="11" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="11" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="11" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="11" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="11" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="11" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="11" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="11" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="11" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="11" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="11" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="11" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="11" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="11" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="11" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="11" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="11" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="11" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="11" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="11" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5454,90 +5520,90 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="21.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="8" width="11.1796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="21.453125" collapsed="true"/>
+    <col min="3" max="16384" style="8" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5554,9 +5620,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5596,11 +5662,11 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5621,7 +5687,7 @@
       <c r="B2" t="s">
         <v>405</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>408</v>
       </c>
     </row>
@@ -5632,7 +5698,7 @@
       <c r="B3" t="s">
         <v>405</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5643,7 +5709,7 @@
       <c r="B4" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5654,7 +5720,7 @@
       <c r="B5" t="s">
         <v>405</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>411</v>
       </c>
     </row>
@@ -5665,16 +5731,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.26953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5693,10 +5759,10 @@
         <v>415</v>
       </c>
       <c r="B2" s="4">
-        <v>43217</v>
-      </c>
-      <c r="C2">
-        <v>90</v>
+        <v>43227.386986030098</v>
+      </c>
+      <c r="C2" s="3">
+        <v>510000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5704,32 +5770,109 @@
         <v>416</v>
       </c>
       <c r="B3" s="4">
-        <v>43218</v>
-      </c>
-      <c r="C3">
-        <v>90</v>
+        <v>43227.452533506897</v>
+      </c>
+      <c r="C3" s="5">
+        <v>204000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="4">
-        <v>43219</v>
+      <c r="B4" s="6">
+        <v>43227.464328807902</v>
       </c>
       <c r="C4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>434</v>
-      </c>
-      <c r="B5" t="n">
-        <v>43222.722382719905</v>
-      </c>
-      <c r="C5" t="n">
-        <v>120000.0</v>
+        <v>435</v>
+      </c>
+      <c r="B5">
+        <v>43227.468758043979</v>
+      </c>
+      <c r="C5">
+        <v>536000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6">
+        <v>43227.47128646991</v>
+      </c>
+      <c r="C6">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7">
+        <v>43227.476677488427</v>
+      </c>
+      <c r="C7">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B8">
+        <v>43229.361828807872</v>
+      </c>
+      <c r="C8">
+        <v>395000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" t="n">
+        <v>43229.44948730324</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1296000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" t="n">
+        <v>43229.48228244213</v>
+      </c>
+      <c r="C10" t="n">
+        <v>919000.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B11" t="n">
+        <v>43229.48996122685</v>
+      </c>
+      <c r="C11" t="n">
+        <v>60000.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B12" t="n">
+        <v>43229.494359791664</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1650000.0</v>
       </c>
     </row>
   </sheetData>
@@ -5740,15 +5883,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5775,14 +5918,14 @@
       <c r="B2" t="s">
         <v>415</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
+      <c r="C2" t="s">
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100000</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>510000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5792,14 +5935,286 @@
       <c r="B3" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
+      <c r="C3" t="s">
+        <v>36</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
-        <v>200000</v>
+      <c r="E3" s="3">
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>408000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>378000.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>918000.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>342000.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>112000.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>225000.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>240000.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>448</v>
+      </c>
+      <c r="B18" t="s">
+        <v>447</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>60000.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1650000.0</v>
       </c>
     </row>
   </sheetData>
@@ -5811,45 +6226,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10000000</v>
+        <v>428</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>8350000.0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C3" s="2">
         <v>10000000</v>
@@ -5857,10 +6272,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C4" s="2">
         <v>10000000</v>
@@ -5868,10 +6283,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C5" s="2">
         <v>10000000</v>
